--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R300fb046e75d40da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rea5e1c38490d4e6b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R6c03b27afa144c81"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rdc88dafe732b496b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R5fdf32dfb5dd464f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R2d18dc1057194adc"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rea5e1c38490d4e6b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R16b97ceb99354638"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R5fdf32dfb5dd464f"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R2d18dc1057194adc"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rbc2ae6ee57cf4dec"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4c07ec2c7f784847"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R16b97ceb99354638"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R609186d234924226"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rbc2ae6ee57cf4dec"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4c07ec2c7f784847"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Raf249e08a8b0414f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R64118ddd5a2d467d"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R609186d234924226"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R1ef6a2096e634c7c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Raf249e08a8b0414f"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R64118ddd5a2d467d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R5eb304cd14ae4f3a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rdb4826e48cd844c1"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R1ef6a2096e634c7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R55db04037bfb453a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R5eb304cd14ae4f3a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rdb4826e48cd844c1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rbb64070d4ae04340"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rd461f9ec0ca74772"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R55db04037bfb453a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4e8fa18f8b604d90"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rbb64070d4ae04340"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rd461f9ec0ca74772"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rba58f9af9a504a43"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R1946ac98aa5840d0"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4e8fa18f8b604d90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R8df5566a204941c5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rba58f9af9a504a43"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R1946ac98aa5840d0"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8e44889c67de4d1a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Re1808ce38bae4999"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R8df5566a204941c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R8ee57682a00045e2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8e44889c67de4d1a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Re1808ce38bae4999"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rc02ccdfc448544f3"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R0d4bdf925fc847e4"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R8ee57682a00045e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R2ac61a64612244dd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rc02ccdfc448544f3"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R0d4bdf925fc847e4"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8be88f3bc02243b7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R593a4fcb5cb44883"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R2ac61a64612244dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R5f83f0cd2d724a59"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8be88f3bc02243b7"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R593a4fcb5cb44883"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R0a9d94c207c4448c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R0cdcea640e0d4172"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R5f83f0cd2d724a59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra4ccdcb2a31c4332"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R0a9d94c207c4448c"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R0cdcea640e0d4172"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rcdbfd4a9403c491d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rcd613006d37f4ccb"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra4ccdcb2a31c4332"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R1993770b71134abb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rcdbfd4a9403c491d"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rcd613006d37f4ccb"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R51665df6906042ac"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R8e459af08fba4639"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R1993770b71134abb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R99f4ab85d5034abb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -122,8 +122,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R51665df6906042ac"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R8e459af08fba4639"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R1f6ba044f2744f6c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R10e13f65b46a4210"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R99f4ab85d5034abb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra0b430c5b79a4a70"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -122,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R1f6ba044f2744f6c"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R10e13f65b46a4210"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R6547456578534c2f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R8f7fcd7b989c42b3"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra0b430c5b79a4a70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ref4e1bea0b454c1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R6547456578534c2f"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R8f7fcd7b989c42b3"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R85ccbe9e525945ff"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R1764a10d007f44ae"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ref4e1bea0b454c1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R55374d1f852548f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R85ccbe9e525945ff"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R1764a10d007f44ae"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R74224acc24024a65"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R80dcca9116c84071"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R55374d1f852548f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rc223e10e10cf456d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R74224acc24024a65"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R80dcca9116c84071"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8037a53f458c43bc"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Ra9dd5900d0c143a5"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rc223e10e10cf456d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra39d37ee76284584"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8037a53f458c43bc"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Ra9dd5900d0c143a5"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R59fd427b68494926"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rac4d84ac79734da2"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Ra39d37ee76284584"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R46760a078f6144aa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R59fd427b68494926"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rac4d84ac79734da2"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R0d794f2ba10a42d7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Ref65e0b389c44524"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R46760a078f6144aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rbd84740299eb4fa5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R0d794f2ba10a42d7"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Ref65e0b389c44524"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R914610f5da0a45fc"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R71ce97fce95c45cf"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rbd84740299eb4fa5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rc2af133271c84603"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R914610f5da0a45fc"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R71ce97fce95c45cf"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R379886c75fa94ef2"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R315e02f0365349d4"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rc2af133271c84603"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4cb10f8e22dc42c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R379886c75fa94ef2"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R315e02f0365349d4"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R34756cb9d1494d64"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R7dc5c310a8264725"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4cb10f8e22dc42c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rf41ca2d9b77a46fe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R34756cb9d1494d64"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R7dc5c310a8264725"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rbed71c4138ad4813"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R1ff415b330c746a2"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rf41ca2d9b77a46fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rbda43995e3d6491c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rbed71c4138ad4813"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R1ff415b330c746a2"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Re73ba0c55eeb4fa8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R29b9b0fe5ead4416"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rbda43995e3d6491c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rd230f54f17a8466b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Re73ba0c55eeb4fa8"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R29b9b0fe5ead4416"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Re993e09543cc4bfa"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R957679c6d5604c64"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rd230f54f17a8466b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R06ea50f219d042b7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Re993e09543cc4bfa"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R957679c6d5604c64"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R1680da9b144d4b37"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4e880520edf9442f"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R06ea50f219d042b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rb7ea66b0fb1647ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R1680da9b144d4b37"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4e880520edf9442f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rfa39f667535f4af8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4e1505a75f6f4ea7"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rb7ea66b0fb1647ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R688b315a05934b58"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rfa39f667535f4af8"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R4e1505a75f6f4ea7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R904fde0929ee46bb"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Re0da6240a4d44029"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R688b315a05934b58"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R89f9707fd8b84981"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R904fde0929ee46bb"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Re0da6240a4d44029"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rc69735770c794d21"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R104c557a9afa448c"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R89f9707fd8b84981"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R9889b966828342ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rc69735770c794d21"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R104c557a9afa448c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R0ac5f7c8ef5545d5"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Re9c389bc8532427c"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R9889b966828342ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R2c0ce608a0224da4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R0ac5f7c8ef5545d5"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Re9c389bc8532427c"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R5ea4df5a1e97416b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R2fa0be7d733c4ec6"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R2c0ce608a0224da4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R38a13c10eb5a4075"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R5ea4df5a1e97416b"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R2fa0be7d733c4ec6"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rfafeb499a7a64874"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rad240488266440c3"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R38a13c10eb5a4075"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rfcbe8af5819f43f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rfafeb499a7a64874"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rad240488266440c3"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R41190695f9e147f8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R8e6bb172e7f3423f"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rfcbe8af5819f43f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R45c9057a21c6444f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R41190695f9e147f8"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R8e6bb172e7f3423f"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R9ff780b09a7c4fdf"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R38cc438e5a7a4536"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R45c9057a21c6444f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R5f6791eae4674232"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R9ff780b09a7c4fdf"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R38cc438e5a7a4536"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8024147c675d40bb"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R3ca9173268bd4e81"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R5f6791eae4674232"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rc994847102db4406"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R8024147c675d40bb"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R3ca9173268bd4e81"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R978ebf7c4af1414e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R83619ea1176c4490"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rc994847102db4406"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R14cfc37d9f6f417b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R978ebf7c4af1414e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R83619ea1176c4490"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Ree9cd08891c1439a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R5b412e958d5d4ef6"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R14cfc37d9f6f417b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R8bc4b92076d5466e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Ree9cd08891c1439a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R5b412e958d5d4ef6"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R612145e630164f60"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R175fbb3c35754989"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R8bc4b92076d5466e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R0c1f205421744291"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R612145e630164f60"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R175fbb3c35754989"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R868af9d5d4ab4b5d"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rd53e1c9d93844b02"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R0c1f205421744291"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rb7961a0980c3494f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R868af9d5d4ab4b5d"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="Rd53e1c9d93844b02"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rc714a588658143d1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R385ed8827bf5453b"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/35_ReadExcel.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="Rb7961a0980c3494f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleData" sheetId="1" r:id="R4b0eb4bb439e4496"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -123,8 +123,8 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="Rc714a588658143d1"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R385ed8827bf5453b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="R2c177c2d1078451e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="R8ed2c7b62e284364"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>